--- a/biology/Zoologie/Guit-guit_saï/Guit-guit_saï.xlsx
+++ b/biology/Zoologie/Guit-guit_saï/Guit-guit_saï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guit-guit_sa%C3%AF</t>
+          <t>Guit-guit_saï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanerpes cyaneus
 Le Guit-guit saï (Cyanerpes cyaneus) est une espèce de Guit-guit, petit passereau de la famille des Thraupidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guit-guit_sa%C3%AF</t>
+          <t>Guit-guit_saï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cyanerpes cyaneus (Linnaeus, 1766)[1].
-Sous-espèces
-Selon ITIS      (19 mai 2024)[1], cet oiseau est représenté par 11 sous-espèces :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cyanerpes cyaneus (Linnaeus, 1766).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Guit-guit_saï</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guit-guit_sa%C3%AF</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (19 mai 2024), cet oiseau est représenté par 11 sous-espèces :
 Cyanerpes cyaneus brevipes (Cabanis, 1850) ;
 Cyanerpes cyaneus carneipes (P.L. Sclater, 1860) ;
 Cyanerpes cyaneus cyaneus (Linnaeus, 1766) ;
@@ -532,33 +581,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Guit-guit_sa%C3%AF</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Guit-guit_saï</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Guit-guit_sa%C3%AF</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[2] : Belize, Bolivie, Brésil, Colombie, Costa Rica, Guatemala, Guyana, Guyane, Honduras, Mexique, Nicaragua, Panama, Pérou, Salvador, Suriname, Trinité-et-Tobago, Venezuela, Équateur.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Belize, Bolivie, Brésil, Colombie, Costa Rica, Guatemala, Guyana, Guyane, Honduras, Mexique, Nicaragua, Panama, Pérou, Salvador, Suriname, Trinité-et-Tobago, Venezuela, Équateur.
 </t>
         </is>
       </c>
